--- a/EndResult/200m Butterfly.xlsx
+++ b/EndResult/200m Butterfly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1162,25 +1162,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Solum Ole Peder Uthus</t>
+          <t>Odin Spangen Normann</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.25,91</t>
+          <t>2.26,78</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.06.2018</t>
+          <t>04.03.2012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1197,25 +1197,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Odin Spangen Normann</t>
+          <t>Kristian Volden</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.26,78</t>
+          <t>2.28,14</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>04.03.2012</t>
+          <t>28.05.2016</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2009,25 +2009,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Miriam Vedvik</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.52,31</t>
+          <t>3.12,55</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08.07.2017</t>
+          <t>28.04.2007</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
